--- a/all_users_data.xlsx
+++ b/all_users_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
     <col width="40" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="85" customWidth="1" min="12" max="12"/>
   </cols>
@@ -492,7 +492,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>гос.номер</t>
+          <t>Гос.номер</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -719,109 +719,217 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>278050502</v>
+        <v>6016356293</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Жопкин</t>
+          <t>Артамонова</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Валентин</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Жмышенкович</t>
+          <t>Анатольевна</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>32918</v>
+        <v>35801</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>79069320316</t>
+          <t>79514920759</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Сварщик</t>
+          <t>Я архитектор</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Я держу район</t>
         </is>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>А228УЕ-54</t>
+          <t>А333МА-54</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIK7GSJ2Q7zajIm-4jTiUhjPp5Lt4ojAAKw0zEb4dNRSIsGQMR-WWk6AQADAgADcwADLwQ</t>
+          <t>AgACAgIAAxkBAAILRWSJ3ZyvBn9l7ah5kKCklJCSYXv6AALoyzEbF49QSKqMzAfC6DurAQADAgADcwADLwQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6016356293</v>
+        <v>278050502</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Артамонова</t>
+          <t>Жожкин</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Валентин</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Жмышенкович</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>35801</v>
+        <v>32918</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>79069320316</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Сварщик</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>А228АЕ-54</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIK7GSJ2Q7zajIm-4jTiUhjPp5Lt4ojAAKw0zEb4dNRSIsGQMR-WWk6AQADAgADcwADLwQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6016356299</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Арта</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Тан</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>34075</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>79514920759</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Я архитектор</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Я держу район</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Чорт666</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAILRWSJ3ZyvBn9l7ah5kKCklJCSYXv6AALoyzEbF49QSKqMzAfC6DurAQADAgADcwADLwQ</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Я работаю уборщицей</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>С065МК-66</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIMr2SKdEKqF1dre54L_PeaQLt1Oq2dAAINxjEbF49YSFaLr0dzZCFeAQADAgADcwADLwQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>951217436</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Фёдоров</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>30293</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>79231468808</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Не работаю😁</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Е007МВ-154</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIM32SKrb_s5k31WnbgzMzd6jBoisWLAALVuzEbyt2ASTABEIfBKbrpAQADAgADcwADLwQ</t>
         </is>
       </c>
     </row>

--- a/all_users_data.xlsx
+++ b/all_users_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,433 +503,163 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60163562923</v>
+        <v>278050502</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Артамонова</t>
+          <t>Жожкин</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Татьяна3</t>
+          <t>Валентин</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Жмышенкович</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>44357</v>
+        <v>32918</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79514920759</t>
+          <t>79069320316</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Архитектура</t>
+          <t>Сварщик</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Держу лодочную станцию</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Е061АР-61</t>
+          <t>А228АЕ-54</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIFXGSDLFn0IGLUXAPGehUrC4IFrpJbAAIUyDEbZqIhSHGE3rBWKhohAQADAgADcwADLwQ</t>
+          <t>AgACAgIAAxkBAAIK7GSJ2Q7zajIm-4jTiUhjPp5Lt4ojAAKw0zEb4dNRSIsGQMR-WWk6AQADAgADcwADLwQ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6016356292</v>
+        <v>951217436</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Артамонова</t>
+          <t>Фёдоров</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Татьяна1</t>
+          <t>Роман</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>41076</v>
+        <v>30293</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79514920759</t>
+          <t>79231468808</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Архитектура</t>
+          <t>Не работаю😁</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Держу лодочную станцию</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Е061АР-61</t>
+          <t>Е007МВ-154</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIFXGSDLFn0IGLUXAPGehUrC4IFrpJbAAIUyDEbZqIhSHGE3rBWKhohAQADAgADcwADLwQ</t>
+          <t>AgACAgIAAxkBAAIM32SKrb_s5k31WnbgzMzd6jBoisWLAALVuzEbyt2ASTABEIfBKbrpAQADAgADcwADLwQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6016356294</v>
+        <v>957329180</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Артамонова</t>
+          <t>Павлов</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Татьяна2</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Алексеевич</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44722</v>
+        <v>36875</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79514920759</t>
+          <t>+79244636684</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Архитектура</t>
+          <t>Учусь в нгту на направлении "Программная инженерия"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Держу лодочную станцию</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Е061АР-61</t>
+          <t>A345AT-55</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIFXGSDLFn0IGLUXAPGehUrC4IFrpJbAAIUyDEbZqIhSHGE3rBWKhohAQADAgADcwADLwQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>957329180</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Павлов</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Алексеевич</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>36875</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+79244636684</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>я проегр</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A345AT-55</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIJbmSHUbl9LyBkSSorLXqgbGQWrG7LAAL7yzEbF7o5SO12Iq2aq5ooAQADAgADcwADLwQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6016356293</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Артамонова</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Татьяна</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Анатольевна</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>35801</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>79514920759</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Я архитектор</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Я держу район</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>А333МА-54</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAILRWSJ3ZyvBn9l7ah5kKCklJCSYXv6AALoyzEbF49QSKqMzAfC6DurAQADAgADcwADLwQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>278050502</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Жожкин</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Валентин</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Жмышенкович</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>32918</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>79069320316</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Сварщик</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>А228АЕ-54</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIK7GSJ2Q7zajIm-4jTiUhjPp5Lt4ojAAKw0zEb4dNRSIsGQMR-WWk6AQADAgADcwADLwQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6016356299</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Арта</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Тан</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>34075</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>79514920759</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Я работаю уборщицей</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>С065МК-66</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIMr2SKdEKqF1dre54L_PeaQLt1Oq2dAAINxjEbF49YSFaLr0dzZCFeAQADAgADcwADLwQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>951217436</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Фёдоров</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Роман</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Николаевич</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>30293</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>79231468808</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Не работаю😁</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Е007МВ-154</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIM32SKrb_s5k31WnbgzMzd6jBoisWLAALVuzEbyt2ASTABEIfBKbrpAQADAgADcwADLwQ</t>
+          <t>AgACAgIAAxkBAAIO42SQQAQttFuYl705qtHMXYyrnKcbAAKezjEb6umBSAh4bj6En19iAQADAgADbQADLwQ</t>
         </is>
       </c>
     </row>

--- a/all_users_data.xlsx
+++ b/all_users_data.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>32918</v>
+        <v>33047</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>36875</v>
+        <v>36700</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Учусь в нгту на направлении "Программная инженерия"</t>
+          <t>Я учусь в НГТУ на направлении "Программная инженерия"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -654,12 +654,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>A345AT-55</t>
+          <t>K234KA-34</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIO42SQQAQttFuYl705qtHMXYyrnKcbAAKezjEb6umBSAh4bj6En19iAQADAgADbQADLwQ</t>
+          <t>AgACAgIAAxkBAAIQBWSR3P7usQHaLb8BUXL3LFv-dYFYAAKoyDEb8p2RSEP0kB0o9MjEAQADAgADcwADLwQ</t>
         </is>
       </c>
     </row>

--- a/all_users_data.xlsx
+++ b/all_users_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,34 +503,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>278050502</v>
+        <v>1389943181</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Жожкин</t>
+          <t>Мищенко</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Валентин</t>
+          <t>Полина</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Жмышенкович</t>
+          <t>Валерьевна</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>33047</v>
+        <v>32710</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79069320316</t>
+          <t>79231280737</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Сварщик</t>
+          <t>Преподаватель в сфере IT, рукоделие, садоводство, журналистика, благотворительность и др</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -539,52 +539,52 @@
         </is>
       </c>
       <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>А228АЕ-54</t>
+          <t>М939КА-154</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIK7GSJ2Q7zajIm-4jTiUhjPp5Lt4ojAAKw0zEb4dNRSIsGQMR-WWk6AQADAgADcwADLwQ</t>
+          <t>AgACAgIAAxkBAAISaWVogkz8qGcu-CCLtlkl5gOUsG0dAAIs1DEbIY1JS3gtzXZhE3YHAQADAgADcwADMwQ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>951217436</v>
+        <v>428091323</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Фёдоров</t>
+          <t>Кротов</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Роман</t>
+          <t>Артур</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Маратович</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>30293</v>
+        <v>29484</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79231468808</t>
+          <t>79137496292</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Не работаю😁</t>
+          <t>Строю Цоды</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -593,73 +593,127 @@
         </is>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Е007МВ-154</t>
+          <t>Н139ЕТ-154</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIM32SKrb_s5k31WnbgzMzd6jBoisWLAALVuzEbyt2ASTABEIfBKbrpAQADAgADcwADLwQ</t>
+          <t>AgACAgIAAxkBAAISh2VohHyHoR4PN_Ownaa5ZYNZYYLkAAId1DEbUJlJS8OsPxZNu6rDAQADAgADcwADMwQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>695316616</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Соловьёва</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>35484</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>79994699393</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Занимаюсь всему по не много,любая помощь абсолютно , всегда на связи</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>не знаю</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>О528ВТ-154</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAITEmVopPyL6n1DZhBYvHkTXTOVXo8TAAKD0jEb4fNJS3XKrX9QQyelAQADAgADcwADMwQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>957329180</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Павлов</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Иван</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Алексеевич</t>
         </is>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>36700</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E5" s="1" t="n">
+        <v>36875</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>+79244636684</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Я учусь в НГТУ на направлении "Программная инженерия"</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>K234KA-34</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIQBWSR3P7usQHaLb8BUXL3LFv-dYFYAAKoyDEb8p2RSEP0kB0o9MjEAQADAgADcwADLwQ</t>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>С555ОК-34</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIUQ2Vp4oEK8AABpTnUXr0FRcljYFx3pgACDtMxGx-TUUsPTErVdvVfoAEAAwIAA3MAAzME</t>
         </is>
       </c>
     </row>

--- a/all_users_data.xlsx
+++ b/all_users_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,8 +435,9 @@
     <col width="40" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="85" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="85" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,6 +498,11 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>кузов</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>file_id авто</t>
         </is>
       </c>
@@ -549,7 +555,7 @@
           <t>М939КА-154</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>AgACAgIAAxkBAAISaWVogkz8qGcu-CCLtlkl5gOUsG0dAAIs1DEbIY1JS3gtzXZhE3YHAQADAgADcwADMwQ</t>
         </is>
@@ -603,7 +609,7 @@
           <t>Н139ЕТ-154</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>AgACAgIAAxkBAAISh2VohHyHoR4PN_Ownaa5ZYNZYYLkAAId1DEbUJlJS8OsPxZNu6rDAQADAgADcwADMwQ</t>
         </is>
@@ -657,7 +663,7 @@
           <t>О528ВТ-154</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>AgACAgIAAxkBAAITEmVopPyL6n1DZhBYvHkTXTOVXo8TAAKD0jEb4fNJS3XKrX9QQyelAQADAgADcwADMwQ</t>
         </is>
@@ -713,7 +719,130 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>е22</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>AgACAgIAAxkBAAIUQ2Vp4oEK8AABpTnUXr0FRcljYFx3pgACDtMxGx-TUUsPTErVdvVfoAEAAwIAA3MAAzME</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6016356293</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Фантик</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Фунтик</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Алибабаевич</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>40538</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>79514920759</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Я разбойник</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>В333СМ-77</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Паравоз</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIXh2VrdMdg4Y2Lbk_QjvArKdrd6NhgAAIj2DEbV9BgS1QQHI4ggANsAQADAgADcwADMwQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>951217436</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Фёдоров</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>30293</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>79231468808</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Нельзя говорить</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Е007МВ-154</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>е53</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIM32SKrb_s5k31WnbgzMzd6jBoisWLAALVuzEbyt2ASTABEIfBKbrpAQADAgADcwADLwQ</t>
         </is>
       </c>
     </row>
